--- a/datas/test_datas.xlsx
+++ b/datas/test_datas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11640" windowWidth="19200" xWindow="0" yWindow="90"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11640" windowWidth="19200" xWindow="0" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="bidloan" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -95,7 +95,7 @@
     <t>密码长度为18位</t>
   </si>
   <si>
-    <t>{"mobilephone":"18566665678","pwd":"123456789012345678"}</t>
+    <t>{"mobilephone":"${phone2}","pwd":"123456789012345678"}</t>
   </si>
   <si>
     <t>密码长度为19位</t>
@@ -167,7 +167,7 @@
     <t>{"mobilephone":"18566668888","amount":"50.00"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115526,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18566668888","leaveamount":"500600.00","type":"1","regtime":"2019-01-21 10:56:14.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115526,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18566668888","leaveamount":"2990700.00","type":"1","regtime":"2019-01-21 10:56:14.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>手机号码为空</t>
@@ -188,7 +188,7 @@
     <t>输入未注册的手机号</t>
   </si>
   <si>
-    <t>{"mobilephone":"${phone}","amount":"50.00"}</t>
+    <t>{"mobilephone":"13045678901","amount":"50.00"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
@@ -230,7 +230,7 @@
     <t>{"mobilephone":"18566668888","amount":"500000.00"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1115526,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18566668888","leaveamount":"1000600.00","type":"1","regtime":"2019-01-21 10:56:14.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1115526,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18566668888","leaveamount":"3490700.00","type":"1","regtime":"2019-01-21 10:56:14.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>输入负数金额</t>
@@ -260,6 +260,9 @@
     <t>取现金额为空</t>
   </si>
   <si>
+    <t>{"mobilephone":"13045678901","amount":"1.00"}</t>
+  </si>
+  <si>
     <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
   </si>
   <si>
@@ -272,15 +275,15 @@
     <t>取现金额等于50万</t>
   </si>
   <si>
+    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>余额不足</t>
   </si>
   <si>
-    <t>{"mobilephone":"18566668888","amount":"1000000.00"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
     <t>管理员正常登录</t>
   </si>
   <si>
@@ -410,22 +413,16 @@
     <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
   </si>
   <si>
-    <t>正常投资</t>
-  </si>
-  <si>
-    <t>{"memberId":"${normal_member_id}","password":"${normal_pwd}","loanId":"${loan_id}","amount":"50000"}</t>
-  </si>
-  <si>
     <t>对已经满标的标投资</t>
   </si>
   <si>
-    <t>投资可投金额不足的标</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>根据数值参数的类型对应输入合法的数字</t>
+    <t>{"memberId":1116179,"password":123456,"loanId":12198,"amount":200}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"11011","data":null,"msg":"该标已经满标,无法进行投资"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1115526,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18566668888","leaveamount":"990500.00","type":"1","regtime":"2019-01-21 10:56:14.0"},"msg":"取现成功"}</t>
   </si>
 </sst>
 </file>
@@ -831,7 +828,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1329,8 +1326,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1696,8 +1693,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1783,7 +1780,7 @@
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1852,7 +1849,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1861,7 +1858,7 @@
         <v>20104</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1924,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -1950,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>77</v>
@@ -1965,7 +1962,7 @@
         <v>10001</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1976,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>77</v>
@@ -2054,13 +2051,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -2069,7 +2066,7 @@
         <v>20119</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
@@ -2086,10 +2083,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2133,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -2159,13 +2156,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2174,7 +2171,7 @@
         <v>10001</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2185,13 +2182,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -2200,7 +2197,7 @@
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -2211,13 +2208,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
@@ -2237,13 +2234,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -2252,7 +2249,7 @@
         <v>10001</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -2263,13 +2260,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -2278,7 +2275,7 @@
         <v>11003</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -2289,13 +2286,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -2304,7 +2301,7 @@
         <v>11004</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -2315,13 +2312,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
@@ -2330,7 +2327,7 @@
         <v>11006</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -2341,13 +2338,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>11</v>
@@ -2356,7 +2353,7 @@
         <v>11006</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -2367,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -2382,7 +2379,7 @@
         <v>11007</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -2393,13 +2390,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -2408,7 +2405,7 @@
         <v>11007</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -2419,13 +2416,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -2434,7 +2431,7 @@
         <v>11008</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -2445,13 +2442,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -2460,24 +2457,24 @@
         <v>11009</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="15" s="6" spans="1:8">
+    <row customFormat="1" r="15" s="6" spans="1:8">
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -2497,13 +2494,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
@@ -2512,24 +2509,24 @@
         <v>10001</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="17" s="6" spans="1:8">
+    <row customFormat="1" r="17" s="6" spans="1:8">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -2538,24 +2535,24 @@
         <v>10001</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="18" s="6" spans="1:8">
+    <row customFormat="1" r="18" s="6" spans="1:8">
       <c r="A18" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
@@ -2575,13 +2572,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>11</v>
@@ -2590,122 +2587,36 @@
         <v>11010</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="20" s="6" spans="1:8">
+    <row customHeight="1" ht="27" r="20" s="4" spans="1:8">
       <c r="A20" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>10001</v>
+        <v>11011</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="21" s="4" spans="1:8">
-      <c r="A21" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>10001</v>
-      </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="22" s="4" spans="1:8">
-      <c r="A22" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>11011</v>
-      </c>
-      <c r="G22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>11012</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="n">
-        <v>11013</v>
       </c>
     </row>
   </sheetData>
